--- a/run_log/run_results/train_history/training_history_run_1.xlsx
+++ b/run_log/run_results/train_history/training_history_run_1.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.06864795088768005</v>
+        <v>0.08007198572158813</v>
       </c>
       <c r="B2">
-        <v>0.9785774350166321</v>
+        <v>0.985791802406311</v>
       </c>
       <c r="C2">
-        <v>0.01183540467172861</v>
+        <v>0.03856929391622543</v>
       </c>
       <c r="D2">
-        <v>0.997866690158844</v>
+        <v>0.9952033162117004</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01121074426919222</v>
+        <v>0.01875740848481655</v>
       </c>
       <c r="B3">
-        <v>0.9978001117706299</v>
+        <v>0.9951562881469727</v>
       </c>
       <c r="C3">
-        <v>0.003958466462790966</v>
+        <v>0.1009048670530319</v>
       </c>
       <c r="D3">
-        <v>0.9989333152770996</v>
+        <v>0.9663468599319458</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.006251577287912369</v>
+        <v>0.01144350972026587</v>
       </c>
       <c r="B4">
-        <v>0.9984286427497864</v>
+        <v>0.9956299066543579</v>
       </c>
       <c r="C4">
-        <v>0.0007559931254945695</v>
+        <v>0.01072407513856888</v>
       </c>
       <c r="D4">
-        <v>0.9996444582939148</v>
+        <v>0.998248815536499</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003398736240342259</v>
+        <v>0.01088115200400352</v>
       </c>
       <c r="B5">
-        <v>0.9991357922554016</v>
+        <v>0.9955222606658936</v>
       </c>
       <c r="C5">
-        <v>0.0005313612055033445</v>
+        <v>0.006131215952336788</v>
       </c>
       <c r="D5">
-        <v>0.999822199344635</v>
+        <v>0.9994670152664185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001702073845081031</v>
+        <v>0.008160357363522053</v>
       </c>
       <c r="B6">
-        <v>0.9996857047080994</v>
+        <v>0.9961680769920349</v>
       </c>
       <c r="C6">
-        <v>0.001077712862752378</v>
+        <v>0.01201025303453207</v>
       </c>
       <c r="D6">
-        <v>0.9996444582939148</v>
+        <v>0.9987818002700806</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001304220873862505</v>
+        <v>0.007884222082793713</v>
       </c>
       <c r="B7">
-        <v>0.9996071457862854</v>
+        <v>0.995608389377594</v>
       </c>
       <c r="C7">
-        <v>0.0009311581961810589</v>
+        <v>0.002876221435144544</v>
       </c>
       <c r="D7">
-        <v>0.999822199344635</v>
+        <v>0.9996954202651978</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0009204388479702175</v>
+        <v>0.008362308144569397</v>
       </c>
       <c r="B8">
-        <v>0.9998690485954285</v>
+        <v>0.9956944584846497</v>
       </c>
       <c r="C8">
-        <v>0.000444870674982667</v>
+        <v>0.002993487054482102</v>
       </c>
       <c r="D8">
-        <v>0.999822199344635</v>
+        <v>0.9996193051338196</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001245597726665437</v>
+        <v>0.006591978948563337</v>
       </c>
       <c r="B9">
-        <v>0.9996857047080994</v>
+        <v>0.9965125322341919</v>
       </c>
       <c r="C9">
-        <v>0.0002531363861635327</v>
+        <v>0.003327826038002968</v>
       </c>
       <c r="D9">
-        <v>0.999822199344635</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0006267268909141421</v>
+        <v>0.007527980022132397</v>
       </c>
       <c r="B10">
-        <v>0.9998690485954285</v>
+        <v>0.996684730052948</v>
       </c>
       <c r="C10">
-        <v>0.0004161190881859511</v>
+        <v>0.005529874935746193</v>
       </c>
       <c r="D10">
-        <v>0.999822199344635</v>
+        <v>0.9993147850036621</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001119477325119078</v>
+        <v>0.007582232821732759</v>
       </c>
       <c r="B11">
-        <v>0.9997904896736145</v>
+        <v>0.995802104473114</v>
       </c>
       <c r="C11">
-        <v>7.190617179730907E-05</v>
+        <v>0.003286913502961397</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.001132719917222857</v>
+        <v>0.00708973640576005</v>
       </c>
       <c r="B12">
-        <v>0.9997119307518005</v>
+        <v>0.9964479207992554</v>
       </c>
       <c r="C12">
-        <v>0.00113501853775233</v>
+        <v>0.001985572278499603</v>
       </c>
       <c r="D12">
-        <v>0.9997333288192749</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0003788394096773118</v>
+        <v>0.007011891808360815</v>
       </c>
       <c r="B13">
-        <v>0.9998952150344849</v>
+        <v>0.9957160353660583</v>
       </c>
       <c r="C13">
-        <v>6.805135853937827E-06</v>
+        <v>0.003406009636819363</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0003259689838159829</v>
+        <v>0.007193909492343664</v>
       </c>
       <c r="B14">
-        <v>0.9998428821563721</v>
+        <v>0.9962111711502075</v>
       </c>
       <c r="C14">
-        <v>3.336343070259318E-05</v>
+        <v>0.00235042767599225</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0003656882327049971</v>
+        <v>0.007274913601577282</v>
       </c>
       <c r="B15">
-        <v>0.9998690485954285</v>
+        <v>0.9958236217498779</v>
       </c>
       <c r="C15">
-        <v>0.0002484149590600282</v>
+        <v>0.002577684121206403</v>
       </c>
       <c r="D15">
-        <v>0.999822199344635</v>
+        <v>0.9996954202651978</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>2.121317629644182E-05</v>
+        <v>0.0068623386323452</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.9962111711502075</v>
       </c>
       <c r="C16">
-        <v>0.0001830989203881472</v>
+        <v>0.003303923178464174</v>
       </c>
       <c r="D16">
-        <v>0.999822199344635</v>
+        <v>0.9996193051338196</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>9.827011126617435E-06</v>
+        <v>0.006823075469583273</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.9962326884269714</v>
       </c>
       <c r="C17">
-        <v>0.0002690354303922504</v>
+        <v>0.003472308395430446</v>
       </c>
       <c r="D17">
-        <v>0.999822199344635</v>
+        <v>0.9996954202651978</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.001186549547128379</v>
+        <v>0.00733052846044302</v>
       </c>
       <c r="B18">
-        <v>0.9997119307518005</v>
+        <v>0.9963833689689636</v>
       </c>
       <c r="C18">
-        <v>0.001662042108364403</v>
+        <v>0.002757593058049679</v>
       </c>
       <c r="D18">
-        <v>0.999822199344635</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0001794282725313678</v>
+        <v>0.007271901704370975</v>
       </c>
       <c r="B19">
-        <v>0.999921441078186</v>
+        <v>0.9958236217498779</v>
       </c>
       <c r="C19">
-        <v>0.0008340946515090764</v>
+        <v>0.003236343618482351</v>
       </c>
       <c r="D19">
-        <v>0.999822199344635</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0008889412274584174</v>
+        <v>0.00671363016590476</v>
       </c>
       <c r="B20">
-        <v>0.9998952150344849</v>
+        <v>0.9966632127761841</v>
       </c>
       <c r="C20">
-        <v>0.0003335744549985975</v>
+        <v>0.002509836805984378</v>
       </c>
       <c r="D20">
-        <v>0.999822199344635</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0001660231209825724</v>
+        <v>0.0066492292098701</v>
       </c>
       <c r="B21">
-        <v>0.999921441078186</v>
+        <v>0.9963833689689636</v>
       </c>
       <c r="C21">
-        <v>0.0004553003527689725</v>
+        <v>0.001921096933074296</v>
       </c>
       <c r="D21">
-        <v>0.999822199344635</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>9.731545287650079E-05</v>
+        <v>0.006285324692726135</v>
       </c>
       <c r="B22">
-        <v>0.9999738335609436</v>
+        <v>0.9965340495109558</v>
       </c>
       <c r="C22">
-        <v>9.038513582027008E-08</v>
+        <v>0.002470882842317224</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>9.964293894881848E-06</v>
+        <v>0.006875474471598864</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9962542057037354</v>
       </c>
       <c r="C23">
-        <v>2.389366500210599E-07</v>
+        <v>0.003507760586217046</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9994670152664185</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0007737912237644196</v>
+        <v>0.006698774173855782</v>
       </c>
       <c r="B24">
-        <v>0.9998952150344849</v>
+        <v>0.9960173964500427</v>
       </c>
       <c r="C24">
-        <v>0.0001331889943685383</v>
+        <v>0.002723620273172855</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>8.032184996409342E-05</v>
+        <v>0.006915098521858454</v>
       </c>
       <c r="B25">
-        <v>0.9999738335609436</v>
+        <v>0.9960604310035706</v>
       </c>
       <c r="C25">
-        <v>0.0001068948186002672</v>
+        <v>0.002819475950673223</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0001749428047332913</v>
+        <v>0.007288290187716484</v>
       </c>
       <c r="B26">
-        <v>0.9999476075172424</v>
+        <v>0.9961035251617432</v>
       </c>
       <c r="C26">
-        <v>4.125970917812083E-06</v>
+        <v>0.02501669526100159</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9907872676849365</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0006660911603830755</v>
+        <v>0.006761039141565561</v>
       </c>
       <c r="B27">
-        <v>0.9998166561126709</v>
+        <v>0.996146559715271</v>
       </c>
       <c r="C27">
-        <v>0.01279039867222309</v>
+        <v>0.002671482507139444</v>
       </c>
       <c r="D27">
-        <v>0.9939555525779724</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>2.822903115884401E-05</v>
+        <v>0.006573008839040995</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.9961895942687988</v>
       </c>
       <c r="C28">
-        <v>0.002412367844954133</v>
+        <v>0.002720019780099392</v>
       </c>
       <c r="D28">
-        <v>0.9988444447517395</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0001670910569373518</v>
+        <v>0.00677180290222168</v>
       </c>
       <c r="B29">
-        <v>0.9999476075172424</v>
+        <v>0.9967278242111206</v>
       </c>
       <c r="C29">
-        <v>0.002321726875379682</v>
+        <v>0.002767274854704738</v>
       </c>
       <c r="D29">
-        <v>0.999822199344635</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0007749348296783864</v>
+        <v>0.006351208314299583</v>
       </c>
       <c r="B30">
-        <v>0.9997904896736145</v>
+        <v>0.9961250424385071</v>
       </c>
       <c r="C30">
-        <v>0.0008318876498378813</v>
+        <v>0.00491533987224102</v>
       </c>
       <c r="D30">
-        <v>0.999822199344635</v>
+        <v>0.9996193051338196</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0005337800830602646</v>
+        <v>0.006793205626308918</v>
       </c>
       <c r="B31">
-        <v>0.9998952150344849</v>
+        <v>0.9964264035224915</v>
       </c>
       <c r="C31">
-        <v>0.0005282626952975988</v>
+        <v>0.008962551131844521</v>
       </c>
       <c r="D31">
-        <v>0.999822199344635</v>
+        <v>0.9996954202651978</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.000461772782728076</v>
+        <v>0.006504989229142666</v>
       </c>
       <c r="B32">
-        <v>0.9998952150344849</v>
+        <v>0.9961895942687988</v>
       </c>
       <c r="C32">
-        <v>0.0001969467848539352</v>
+        <v>0.003428101539611816</v>
       </c>
       <c r="D32">
-        <v>0.999822199344635</v>
+        <v>0.9996954202651978</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001994130725506693</v>
+        <v>0.006656272802501917</v>
       </c>
       <c r="B33">
-        <v>0.9999738335609436</v>
+        <v>0.9960819482803345</v>
       </c>
       <c r="C33">
-        <v>0.0007722098380327225</v>
+        <v>0.003073574276641011</v>
       </c>
       <c r="D33">
-        <v>0.999822199344635</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0006438313866965473</v>
+        <v>0.006477264687418938</v>
       </c>
       <c r="B34">
-        <v>0.9998952150344849</v>
+        <v>0.9963403344154358</v>
       </c>
       <c r="C34">
-        <v>0.0006481646560132504</v>
+        <v>0.003373962361365557</v>
       </c>
       <c r="D34">
-        <v>0.999822199344635</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>3.347295569255948E-05</v>
+        <v>0.007249389309436083</v>
       </c>
       <c r="B35">
-        <v>0.9999738335609436</v>
+        <v>0.9962542057037354</v>
       </c>
       <c r="C35">
-        <v>0.0006475702975876629</v>
+        <v>0.004797715693712234</v>
       </c>
       <c r="D35">
-        <v>0.999822199344635</v>
+        <v>0.9996193051338196</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>3.774282595259137E-05</v>
+        <v>0.006381303537636995</v>
       </c>
       <c r="B36">
-        <v>0.9999738335609436</v>
+        <v>0.9963618516921997</v>
       </c>
       <c r="C36">
-        <v>0.007955796085298061</v>
+        <v>0.003252320690080523</v>
       </c>
       <c r="D36">
-        <v>0.9971555471420288</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>2.553681042627431E-05</v>
+        <v>0.006242933683097363</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.9965770840644836</v>
       </c>
       <c r="C37">
-        <v>7.567878583358834E-06</v>
+        <v>0.003359182504937053</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0002159492432838306</v>
+        <v>0.006496266927570105</v>
       </c>
       <c r="B38">
-        <v>0.9998690485954285</v>
+        <v>0.9964479207992554</v>
       </c>
       <c r="C38">
-        <v>3.429674109156622E-07</v>
+        <v>0.003255567979067564</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.000276287057204172</v>
+        <v>0.007636864203959703</v>
       </c>
       <c r="B39">
-        <v>0.9999476075172424</v>
+        <v>0.9961680769920349</v>
       </c>
       <c r="C39">
-        <v>3.846452933942146E-09</v>
+        <v>0.007189958356320858</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.998248815536499</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0005620266310870647</v>
+        <v>0.006333868484944105</v>
       </c>
       <c r="B40">
-        <v>0.9998690485954285</v>
+        <v>0.9967063069343567</v>
       </c>
       <c r="C40">
-        <v>0.000158276830916293</v>
+        <v>0.004852655809372663</v>
       </c>
       <c r="D40">
-        <v>0.9999111294746399</v>
+        <v>0.9989340901374817</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>6.613932055188343E-05</v>
+        <v>0.006501883268356323</v>
       </c>
       <c r="B41">
-        <v>0.9999738335609436</v>
+        <v>0.9961680769920349</v>
       </c>
       <c r="C41">
-        <v>0.0001112883473979309</v>
+        <v>0.004438603762537241</v>
       </c>
       <c r="D41">
-        <v>0.9999111294746399</v>
+        <v>0.9995431900024414</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1.981384957616683E-05</v>
+        <v>0.00640378100797534</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9962326884269714</v>
       </c>
       <c r="C42">
-        <v>1.044845612341305E-05</v>
+        <v>0.003557511139661074</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1.855353133350945E-07</v>
+        <v>0.00716503756120801</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.9960389137268066</v>
       </c>
       <c r="C43">
-        <v>1.198785594169749E-05</v>
+        <v>0.003508857917040586</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0001846603117883205</v>
+        <v>0.005996830761432648</v>
       </c>
       <c r="B44">
-        <v>0.999921441078186</v>
+        <v>0.9963187575340271</v>
       </c>
       <c r="C44">
-        <v>0.0008804638055153191</v>
+        <v>0.003460513660684228</v>
       </c>
       <c r="D44">
-        <v>0.999822199344635</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0002090091293212026</v>
+        <v>0.006530238781124353</v>
       </c>
       <c r="B45">
-        <v>0.9999738335609436</v>
+        <v>0.9964694976806641</v>
       </c>
       <c r="C45">
-        <v>0.0001437755126971751</v>
+        <v>0.003481277730315924</v>
       </c>
       <c r="D45">
-        <v>0.9999111294746399</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>2.857593244698364E-06</v>
+        <v>0.006652339827269316</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9963403344154358</v>
       </c>
       <c r="C46">
-        <v>0.0001522966631455347</v>
+        <v>0.003393134335055947</v>
       </c>
       <c r="D46">
-        <v>0.9999111294746399</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0003404580929782242</v>
+        <v>0.006656423676759005</v>
       </c>
       <c r="B47">
-        <v>0.999921441078186</v>
+        <v>0.9962326884269714</v>
       </c>
       <c r="C47">
-        <v>2.494701448085834E-06</v>
+        <v>0.003866539802402258</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9998477101325989</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1.208444427902577E-05</v>
+        <v>0.00738381827250123</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9962326884269714</v>
       </c>
       <c r="C48">
-        <v>0.000963426660746336</v>
+        <v>0.003530483925715089</v>
       </c>
       <c r="D48">
-        <v>0.999822199344635</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>2.345361644984223E-05</v>
+        <v>0.006607231218367815</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9963403344154358</v>
       </c>
       <c r="C49">
-        <v>0.002196008805185556</v>
+        <v>0.003549492917954922</v>
       </c>
       <c r="D49">
-        <v>0.9996444582939148</v>
+        <v>0.9997715950012207</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>3.374459765836946E-06</v>
+        <v>0.00632998812943697</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.9964264035224915</v>
       </c>
       <c r="C50">
-        <v>0.0008992587681859732</v>
+        <v>0.003982405178248882</v>
       </c>
       <c r="D50">
-        <v>0.999822199344635</v>
+        <v>0.9996193051338196</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0002364385291002691</v>
+        <v>0.006720965728163719</v>
       </c>
       <c r="B51">
-        <v>0.9999738335609436</v>
+        <v>0.9964048862457275</v>
       </c>
       <c r="C51">
-        <v>0.0004729073843918741</v>
+        <v>0.004111401736736298</v>
       </c>
       <c r="D51">
-        <v>0.999822199344635</v>
+        <v>0.9996954202651978</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_1.xlsx
+++ b/run_log/run_results/train_history/training_history_run_1.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.08007198572158813</v>
+        <v>0.07109836488962173</v>
       </c>
       <c r="B2">
-        <v>0.985791802406311</v>
+        <v>0.9812811017036438</v>
       </c>
       <c r="C2">
-        <v>0.03856929391622543</v>
+        <v>0.01564565859735012</v>
       </c>
       <c r="D2">
-        <v>0.9952033162117004</v>
+        <v>0.9975326657295227</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01875740848481655</v>
+        <v>0.009075576439499855</v>
       </c>
       <c r="B3">
-        <v>0.9951562881469727</v>
+        <v>0.9984514117240906</v>
       </c>
       <c r="C3">
-        <v>0.1009048670530319</v>
+        <v>0.01309419330209494</v>
       </c>
       <c r="D3">
-        <v>0.9663468599319458</v>
+        <v>0.997738242149353</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.01144350972026587</v>
+        <v>0.004349478986114264</v>
       </c>
       <c r="B4">
-        <v>0.9956299066543579</v>
+        <v>0.9989740252494812</v>
       </c>
       <c r="C4">
-        <v>0.01072407513856888</v>
+        <v>0.004659167490899563</v>
       </c>
       <c r="D4">
-        <v>0.998248815536499</v>
+        <v>0.998766303062439</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01088115200400352</v>
+        <v>0.002166710095480084</v>
       </c>
       <c r="B5">
-        <v>0.9955222606658936</v>
+        <v>0.9992644190788269</v>
       </c>
       <c r="C5">
-        <v>0.006131215952336788</v>
+        <v>0.002583120251074433</v>
       </c>
       <c r="D5">
-        <v>0.9994670152664185</v>
+        <v>0.9995887875556946</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.008160357363522053</v>
+        <v>0.001694503938779235</v>
       </c>
       <c r="B6">
-        <v>0.9961680769920349</v>
+        <v>0.9996128678321838</v>
       </c>
       <c r="C6">
-        <v>0.01201025303453207</v>
+        <v>0.006677067838609219</v>
       </c>
       <c r="D6">
-        <v>0.9987818002700806</v>
+        <v>0.9990747570991516</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.007884222082793713</v>
+        <v>0.001663376926444471</v>
       </c>
       <c r="B7">
-        <v>0.995608389377594</v>
+        <v>0.9995934963226318</v>
       </c>
       <c r="C7">
-        <v>0.002876221435144544</v>
+        <v>0.001893842127174139</v>
       </c>
       <c r="D7">
-        <v>0.9996954202651978</v>
+        <v>0.9997943639755249</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.008362308144569397</v>
+        <v>0.001703369431197643</v>
       </c>
       <c r="B8">
-        <v>0.9956944584846497</v>
+        <v>0.9996128678321838</v>
       </c>
       <c r="C8">
-        <v>0.002993487054482102</v>
+        <v>0.002304930472746491</v>
       </c>
       <c r="D8">
-        <v>0.9996193051338196</v>
+        <v>0.9997943639755249</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.006591978948563337</v>
+        <v>0.000576861493755132</v>
       </c>
       <c r="B9">
-        <v>0.9965125322341919</v>
+        <v>0.9998645186424255</v>
       </c>
       <c r="C9">
-        <v>0.003327826038002968</v>
+        <v>0.001988050295040011</v>
       </c>
       <c r="D9">
-        <v>0.9997715950012207</v>
+        <v>0.9997943639755249</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.007527980022132397</v>
+        <v>0.0006628966075368226</v>
       </c>
       <c r="B10">
-        <v>0.996684730052948</v>
+        <v>0.9998451471328735</v>
       </c>
       <c r="C10">
-        <v>0.005529874935746193</v>
+        <v>0.002106309169903398</v>
       </c>
       <c r="D10">
-        <v>0.9993147850036621</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.007582232821732759</v>
+        <v>0.001153858262114227</v>
       </c>
       <c r="B11">
-        <v>0.995802104473114</v>
+        <v>0.9997096061706543</v>
       </c>
       <c r="C11">
-        <v>0.003286913502961397</v>
+        <v>0.001744475099258125</v>
       </c>
       <c r="D11">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.00708973640576005</v>
+        <v>0.0003597549512051046</v>
       </c>
       <c r="B12">
-        <v>0.9964479207992554</v>
+        <v>0.9999225735664368</v>
       </c>
       <c r="C12">
-        <v>0.001985572278499603</v>
+        <v>0.002221499336883426</v>
       </c>
       <c r="D12">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.007011891808360815</v>
+        <v>0.0006011043442413211</v>
       </c>
       <c r="B13">
-        <v>0.9957160353660583</v>
+        <v>0.9998645186424255</v>
       </c>
       <c r="C13">
-        <v>0.003406009636819363</v>
+        <v>0.002131890971213579</v>
       </c>
       <c r="D13">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.007193909492343664</v>
+        <v>0.0009197793551720679</v>
       </c>
       <c r="B14">
-        <v>0.9962111711502075</v>
+        <v>0.9998838305473328</v>
       </c>
       <c r="C14">
-        <v>0.00235042767599225</v>
+        <v>0.002157262759283185</v>
       </c>
       <c r="D14">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.007274913601577282</v>
+        <v>0.0002216671855421737</v>
       </c>
       <c r="B15">
-        <v>0.9958236217498779</v>
+        <v>0.999961256980896</v>
       </c>
       <c r="C15">
-        <v>0.002577684121206403</v>
+        <v>0.002732397057116032</v>
       </c>
       <c r="D15">
-        <v>0.9996954202651978</v>
+        <v>0.9997943639755249</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0068623386323452</v>
+        <v>0.001313347369432449</v>
       </c>
       <c r="B16">
-        <v>0.9962111711502075</v>
+        <v>0.9998064041137695</v>
       </c>
       <c r="C16">
-        <v>0.003303923178464174</v>
+        <v>0.00197906862013042</v>
       </c>
       <c r="D16">
-        <v>0.9996193051338196</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.006823075469583273</v>
+        <v>0.0005235631833784282</v>
       </c>
       <c r="B17">
-        <v>0.9962326884269714</v>
+        <v>0.9998451471328735</v>
       </c>
       <c r="C17">
-        <v>0.003472308395430446</v>
+        <v>0.002374853938817978</v>
       </c>
       <c r="D17">
-        <v>0.9996954202651978</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.00733052846044302</v>
+        <v>0.0004051274445373565</v>
       </c>
       <c r="B18">
-        <v>0.9963833689689636</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C18">
-        <v>0.002757593058049679</v>
+        <v>0.00231908424757421</v>
       </c>
       <c r="D18">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.007271901704370975</v>
+        <v>0.000418732495745644</v>
       </c>
       <c r="B19">
-        <v>0.9958236217498779</v>
+        <v>0.9998451471328735</v>
       </c>
       <c r="C19">
-        <v>0.003236343618482351</v>
+        <v>0.003000837750732899</v>
       </c>
       <c r="D19">
-        <v>0.9998477101325989</v>
+        <v>0.9997943639755249</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.00671363016590476</v>
+        <v>0.000467491481686011</v>
       </c>
       <c r="B20">
-        <v>0.9966632127761841</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C20">
-        <v>0.002509836805984378</v>
+        <v>0.002852467121556401</v>
       </c>
       <c r="D20">
-        <v>0.9998477101325989</v>
+        <v>0.9997943639755249</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0066492292098701</v>
+        <v>0.0008965424494817853</v>
       </c>
       <c r="B21">
-        <v>0.9963833689689636</v>
+        <v>0.9998257756233215</v>
       </c>
       <c r="C21">
-        <v>0.001921096933074296</v>
+        <v>0.002433480462059379</v>
       </c>
       <c r="D21">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.006285324692726135</v>
+        <v>0.0003604766679927707</v>
       </c>
       <c r="B22">
-        <v>0.9965340495109558</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C22">
-        <v>0.002470882842317224</v>
+        <v>0.002840063767507672</v>
       </c>
       <c r="D22">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.006875474471598864</v>
+        <v>0.0004379321180749685</v>
       </c>
       <c r="B23">
-        <v>0.9962542057037354</v>
+        <v>0.9998257756233215</v>
       </c>
       <c r="C23">
-        <v>0.003507760586217046</v>
+        <v>0.003185037523508072</v>
       </c>
       <c r="D23">
-        <v>0.9994670152664185</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.006698774173855782</v>
+        <v>0.0002963498118333519</v>
       </c>
       <c r="B24">
-        <v>0.9960173964500427</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C24">
-        <v>0.002723620273172855</v>
+        <v>0.003401753725484014</v>
       </c>
       <c r="D24">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.006915098521858454</v>
+        <v>5.295739174471237E-05</v>
       </c>
       <c r="B25">
-        <v>0.9960604310035706</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>0.002819475950673223</v>
+        <v>0.003776739817112684</v>
       </c>
       <c r="D25">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.007288290187716484</v>
+        <v>4.238043402438052E-05</v>
       </c>
       <c r="B26">
-        <v>0.9961035251617432</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0.02501669526100159</v>
+        <v>0.003912874031811953</v>
       </c>
       <c r="D26">
-        <v>0.9907872676849365</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.006761039141565561</v>
+        <v>0.0007558464421890676</v>
       </c>
       <c r="B27">
-        <v>0.996146559715271</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C27">
-        <v>0.002671482507139444</v>
+        <v>0.003969909157603979</v>
       </c>
       <c r="D27">
-        <v>0.9998477101325989</v>
+        <v>0.9997943639755249</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.006573008839040995</v>
+        <v>0.0003738219093065709</v>
       </c>
       <c r="B28">
-        <v>0.9961895942687988</v>
+        <v>0.9998645186424255</v>
       </c>
       <c r="C28">
-        <v>0.002720019780099392</v>
+        <v>0.004174177069216967</v>
       </c>
       <c r="D28">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.00677180290222168</v>
+        <v>0.0005741852801293135</v>
       </c>
       <c r="B29">
-        <v>0.9967278242111206</v>
+        <v>0.9998451471328735</v>
       </c>
       <c r="C29">
-        <v>0.002767274854704738</v>
+        <v>0.003541883081197739</v>
       </c>
       <c r="D29">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.006351208314299583</v>
+        <v>0.0004834337451029569</v>
       </c>
       <c r="B30">
-        <v>0.9961250424385071</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C30">
-        <v>0.00491533987224102</v>
+        <v>0.003674410283565521</v>
       </c>
       <c r="D30">
-        <v>0.9996193051338196</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.006793205626308918</v>
+        <v>0.0003383196890354156</v>
       </c>
       <c r="B31">
-        <v>0.9964264035224915</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C31">
-        <v>0.008962551131844521</v>
+        <v>0.003607323160395026</v>
       </c>
       <c r="D31">
-        <v>0.9996954202651978</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.006504989229142666</v>
+        <v>0.0003489677328616381</v>
       </c>
       <c r="B32">
-        <v>0.9961895942687988</v>
+        <v>0.9999225735664368</v>
       </c>
       <c r="C32">
-        <v>0.003428101539611816</v>
+        <v>0.003572541056200862</v>
       </c>
       <c r="D32">
-        <v>0.9996954202651978</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.006656272802501917</v>
+        <v>0.0005261022015474737</v>
       </c>
       <c r="B33">
-        <v>0.9960819482803345</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C33">
-        <v>0.003073574276641011</v>
+        <v>0.003298641415312886</v>
       </c>
       <c r="D33">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.006477264687418938</v>
+        <v>0.0001544979750178754</v>
       </c>
       <c r="B34">
-        <v>0.9963403344154358</v>
+        <v>0.9999225735664368</v>
       </c>
       <c r="C34">
-        <v>0.003373962361365557</v>
+        <v>0.003825076157227159</v>
       </c>
       <c r="D34">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.007249389309436083</v>
+        <v>1.15028788059135E-05</v>
       </c>
       <c r="B35">
-        <v>0.9962542057037354</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>0.004797715693712234</v>
+        <v>0.003960392437875271</v>
       </c>
       <c r="D35">
-        <v>0.9996193051338196</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.006381303537636995</v>
+        <v>0.0003065828641410917</v>
       </c>
       <c r="B36">
-        <v>0.9963618516921997</v>
+        <v>0.9999225735664368</v>
       </c>
       <c r="C36">
-        <v>0.003252320690080523</v>
+        <v>0.004265422467142344</v>
       </c>
       <c r="D36">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.006242933683097363</v>
+        <v>0.0004491801664698869</v>
       </c>
       <c r="B37">
-        <v>0.9965770840644836</v>
+        <v>0.9998645186424255</v>
       </c>
       <c r="C37">
-        <v>0.003359182504937053</v>
+        <v>0.003699644468724728</v>
       </c>
       <c r="D37">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.006496266927570105</v>
+        <v>0.0002785635297186673</v>
       </c>
       <c r="B38">
-        <v>0.9964479207992554</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C38">
-        <v>0.003255567979067564</v>
+        <v>0.003723705653101206</v>
       </c>
       <c r="D38">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.007636864203959703</v>
+        <v>0.0004806426004506648</v>
       </c>
       <c r="B39">
-        <v>0.9961680769920349</v>
+        <v>0.9999419450759888</v>
       </c>
       <c r="C39">
-        <v>0.007189958356320858</v>
+        <v>0.00336453365162015</v>
       </c>
       <c r="D39">
-        <v>0.998248815536499</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.006333868484944105</v>
+        <v>2.330929419258609E-05</v>
       </c>
       <c r="B40">
-        <v>0.9967063069343567</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.004852655809372663</v>
+        <v>0.004090424627065659</v>
       </c>
       <c r="D40">
-        <v>0.9989340901374817</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.006501883268356323</v>
+        <v>0.0005164096364751458</v>
       </c>
       <c r="B41">
-        <v>0.9961680769920349</v>
+        <v>0.9999225735664368</v>
       </c>
       <c r="C41">
-        <v>0.004438603762537241</v>
+        <v>0.00367808504961431</v>
       </c>
       <c r="D41">
-        <v>0.9995431900024414</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.00640378100797534</v>
+        <v>0.000139405092340894</v>
       </c>
       <c r="B42">
-        <v>0.9962326884269714</v>
+        <v>0.9999419450759888</v>
       </c>
       <c r="C42">
-        <v>0.003557511139661074</v>
+        <v>0.003960953559726477</v>
       </c>
       <c r="D42">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.00716503756120801</v>
+        <v>0.0002511959464754909</v>
       </c>
       <c r="B43">
-        <v>0.9960389137268066</v>
+        <v>0.999980628490448</v>
       </c>
       <c r="C43">
-        <v>0.003508857917040586</v>
+        <v>0.003251246176660061</v>
       </c>
       <c r="D43">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.005996830761432648</v>
+        <v>5.777502155979164E-05</v>
       </c>
       <c r="B44">
-        <v>0.9963187575340271</v>
+        <v>0.999980628490448</v>
       </c>
       <c r="C44">
-        <v>0.003460513660684228</v>
+        <v>0.003847262356430292</v>
       </c>
       <c r="D44">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.006530238781124353</v>
+        <v>0.0003823455772362649</v>
       </c>
       <c r="B45">
-        <v>0.9964694976806641</v>
+        <v>0.9999419450759888</v>
       </c>
       <c r="C45">
-        <v>0.003481277730315924</v>
+        <v>0.004236360546201468</v>
       </c>
       <c r="D45">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.006652339827269316</v>
+        <v>0.000301788590149954</v>
       </c>
       <c r="B46">
-        <v>0.9963403344154358</v>
+        <v>0.9999032020568848</v>
       </c>
       <c r="C46">
-        <v>0.003393134335055947</v>
+        <v>0.004116904456168413</v>
       </c>
       <c r="D46">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.006656423676759005</v>
+        <v>8.739442273508757E-05</v>
       </c>
       <c r="B47">
-        <v>0.9962326884269714</v>
+        <v>0.999961256980896</v>
       </c>
       <c r="C47">
-        <v>0.003866539802402258</v>
+        <v>0.004202902317047119</v>
       </c>
       <c r="D47">
-        <v>0.9998477101325989</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.00738381827250123</v>
+        <v>6.159298663988011E-06</v>
       </c>
       <c r="B48">
-        <v>0.9962326884269714</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>0.003530483925715089</v>
+        <v>0.004412871785461903</v>
       </c>
       <c r="D48">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.006607231218367815</v>
+        <v>0.0002314865414518863</v>
       </c>
       <c r="B49">
-        <v>0.9963403344154358</v>
+        <v>0.999961256980896</v>
       </c>
       <c r="C49">
-        <v>0.003549492917954922</v>
+        <v>0.004467417486011982</v>
       </c>
       <c r="D49">
-        <v>0.9997715950012207</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.00632998812943697</v>
+        <v>0.0009304629638791084</v>
       </c>
       <c r="B50">
-        <v>0.9964264035224915</v>
+        <v>0.9998645186424255</v>
       </c>
       <c r="C50">
-        <v>0.003982405178248882</v>
+        <v>0.004273765720427036</v>
       </c>
       <c r="D50">
-        <v>0.9996193051338196</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.006720965728163719</v>
+        <v>1.377763601340121E-05</v>
       </c>
       <c r="B51">
-        <v>0.9964048862457275</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.004111401736736298</v>
+        <v>0.004614434670656919</v>
       </c>
       <c r="D51">
-        <v>0.9996954202651978</v>
+        <v>0.9998971819877625</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_1.xlsx
+++ b/run_log/run_results/train_history/training_history_run_1.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.07109836488962173</v>
+        <v>0.05790764093399048</v>
       </c>
       <c r="B2">
-        <v>0.9812811017036438</v>
+        <v>0.9890550374984741</v>
       </c>
       <c r="C2">
-        <v>0.01564565859735012</v>
+        <v>0.008031287230551243</v>
       </c>
       <c r="D2">
-        <v>0.9975326657295227</v>
+        <v>0.9989309906959534</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.009075576439499855</v>
+        <v>0.01109076477587223</v>
       </c>
       <c r="B3">
-        <v>0.9984514117240906</v>
+        <v>0.9979838132858276</v>
       </c>
       <c r="C3">
-        <v>0.01309419330209494</v>
+        <v>0.005349431652575731</v>
       </c>
       <c r="D3">
-        <v>0.997738242149353</v>
+        <v>0.9989309906959534</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.004349478986114264</v>
+        <v>0.006748031824827194</v>
       </c>
       <c r="B4">
-        <v>0.9989740252494812</v>
+        <v>0.9984027743339539</v>
       </c>
       <c r="C4">
-        <v>0.004659167490899563</v>
+        <v>0.002753283828496933</v>
       </c>
       <c r="D4">
-        <v>0.998766303062439</v>
+        <v>0.9991776943206787</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002166710095480084</v>
+        <v>0.003380171256139874</v>
       </c>
       <c r="B5">
-        <v>0.9992644190788269</v>
+        <v>0.9989264607429504</v>
       </c>
       <c r="C5">
-        <v>0.002583120251074433</v>
+        <v>0.0004931573639623821</v>
       </c>
       <c r="D5">
-        <v>0.9995887875556946</v>
+        <v>0.9998355507850647</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001694503938779235</v>
+        <v>0.002814432606101036</v>
       </c>
       <c r="B6">
-        <v>0.9996128678321838</v>
+        <v>0.9992406368255615</v>
       </c>
       <c r="C6">
-        <v>0.006677067838609219</v>
+        <v>0.0001125216076616198</v>
       </c>
       <c r="D6">
-        <v>0.9990747570991516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001663376926444471</v>
+        <v>0.001504226471297443</v>
       </c>
       <c r="B7">
-        <v>0.9995934963226318</v>
+        <v>0.999607264995575</v>
       </c>
       <c r="C7">
-        <v>0.001893842127174139</v>
+        <v>0.0001134235862991773</v>
       </c>
       <c r="D7">
-        <v>0.9997943639755249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001703369431197643</v>
+        <v>0.001523348968476057</v>
       </c>
       <c r="B8">
-        <v>0.9996128678321838</v>
+        <v>0.999450147151947</v>
       </c>
       <c r="C8">
-        <v>0.002304930472746491</v>
+        <v>0.0001273883681278676</v>
       </c>
       <c r="D8">
-        <v>0.9997943639755249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.000576861493755132</v>
+        <v>0.001455856254324317</v>
       </c>
       <c r="B9">
-        <v>0.9998645186424255</v>
+        <v>0.9995810389518738</v>
       </c>
       <c r="C9">
-        <v>0.001988050295040011</v>
+        <v>7.454854494426399E-05</v>
       </c>
       <c r="D9">
-        <v>0.9997943639755249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0006628966075368226</v>
+        <v>0.0007962927338667214</v>
       </c>
       <c r="B10">
-        <v>0.9998451471328735</v>
+        <v>0.9998428821563721</v>
       </c>
       <c r="C10">
-        <v>0.002106309169903398</v>
+        <v>0.0001758038124535233</v>
       </c>
       <c r="D10">
-        <v>0.9998971819877625</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001153858262114227</v>
+        <v>0.0007505666580982506</v>
       </c>
       <c r="B11">
-        <v>0.9997096061706543</v>
+        <v>0.9998167157173157</v>
       </c>
       <c r="C11">
-        <v>0.001744475099258125</v>
+        <v>5.03523915540427E-05</v>
       </c>
       <c r="D11">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0003597549512051046</v>
+        <v>0.0008993609808385372</v>
       </c>
       <c r="B12">
-        <v>0.9999225735664368</v>
+        <v>0.9997119903564453</v>
       </c>
       <c r="C12">
-        <v>0.002221499336883426</v>
+        <v>0.0001186896115541458</v>
       </c>
       <c r="D12">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0006011043442413211</v>
+        <v>0.00153013167437166</v>
       </c>
       <c r="B13">
-        <v>0.9998645186424255</v>
+        <v>0.9996334314346313</v>
       </c>
       <c r="C13">
-        <v>0.002131890971213579</v>
+        <v>0.0002088810579152778</v>
       </c>
       <c r="D13">
-        <v>0.9998971819877625</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0009197793551720679</v>
+        <v>0.0007439260953105986</v>
       </c>
       <c r="B14">
-        <v>0.9998838305473328</v>
+        <v>0.9997643232345581</v>
       </c>
       <c r="C14">
-        <v>0.002157262759283185</v>
+        <v>5.022064578952268E-05</v>
       </c>
       <c r="D14">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0002216671855421737</v>
+        <v>0.0006056775455363095</v>
       </c>
       <c r="B15">
-        <v>0.999961256980896</v>
+        <v>0.9997905492782593</v>
       </c>
       <c r="C15">
-        <v>0.002732397057116032</v>
+        <v>3.790808841586113E-05</v>
       </c>
       <c r="D15">
-        <v>0.9997943639755249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.001313347369432449</v>
+        <v>0.0003594601294025779</v>
       </c>
       <c r="B16">
-        <v>0.9998064041137695</v>
+        <v>0.9998691082000732</v>
       </c>
       <c r="C16">
-        <v>0.00197906862013042</v>
+        <v>0.0002261483896290883</v>
       </c>
       <c r="D16">
-        <v>0.9998971819877625</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0005235631833784282</v>
+        <v>0.0009670010185800493</v>
       </c>
       <c r="B17">
-        <v>0.9998451471328735</v>
+        <v>0.9997643232345581</v>
       </c>
       <c r="C17">
-        <v>0.002374853938817978</v>
+        <v>1.421861634298693E-05</v>
       </c>
       <c r="D17">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0004051274445373565</v>
+        <v>0.0003195509780198336</v>
       </c>
       <c r="B18">
-        <v>0.9999032020568848</v>
+        <v>0.9998428821563721</v>
       </c>
       <c r="C18">
-        <v>0.00231908424757421</v>
+        <v>3.950777681893669E-05</v>
       </c>
       <c r="D18">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.000418732495745644</v>
+        <v>0.0003447523340582848</v>
       </c>
       <c r="B19">
-        <v>0.9998451471328735</v>
+        <v>0.9998952746391296</v>
       </c>
       <c r="C19">
-        <v>0.003000837750732899</v>
+        <v>8.705368600203656E-06</v>
       </c>
       <c r="D19">
-        <v>0.9997943639755249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.000467491481686011</v>
+        <v>0.0008060195832513273</v>
       </c>
       <c r="B20">
-        <v>0.9999032020568848</v>
+        <v>0.9998167157173157</v>
       </c>
       <c r="C20">
-        <v>0.002852467121556401</v>
+        <v>0.0002927497553173453</v>
       </c>
       <c r="D20">
-        <v>0.9997943639755249</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0008965424494817853</v>
+        <v>0.0001099277869798243</v>
       </c>
       <c r="B21">
-        <v>0.9998257756233215</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C21">
-        <v>0.002433480462059379</v>
+        <v>5.061726187705062E-05</v>
       </c>
       <c r="D21">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0003604766679927707</v>
+        <v>0.0005496108205989003</v>
       </c>
       <c r="B22">
-        <v>0.9999032020568848</v>
+        <v>0.9998428821563721</v>
       </c>
       <c r="C22">
-        <v>0.002840063767507672</v>
+        <v>0.0001494950556661934</v>
       </c>
       <c r="D22">
-        <v>0.9998971819877625</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0004379321180749685</v>
+        <v>0.0003722425026353449</v>
       </c>
       <c r="B23">
-        <v>0.9998257756233215</v>
+        <v>0.9998691082000732</v>
       </c>
       <c r="C23">
-        <v>0.003185037523508072</v>
+        <v>1.518455519544659E-05</v>
       </c>
       <c r="D23">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0002963498118333519</v>
+        <v>0.0003220294311176986</v>
       </c>
       <c r="B24">
-        <v>0.9999032020568848</v>
+        <v>0.999921441078186</v>
       </c>
       <c r="C24">
-        <v>0.003401753725484014</v>
+        <v>2.944539573945804E-06</v>
       </c>
       <c r="D24">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>5.295739174471237E-05</v>
+        <v>0.0001521692465757951</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C25">
-        <v>0.003776739817112684</v>
+        <v>1.343099847872509E-05</v>
       </c>
       <c r="D25">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>4.238043402438052E-05</v>
+        <v>0.0002951617643702775</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C26">
-        <v>0.003912874031811953</v>
+        <v>7.095762612152612E-06</v>
       </c>
       <c r="D26">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0007558464421890676</v>
+        <v>0.0001217396347783506</v>
       </c>
       <c r="B27">
-        <v>0.9999032020568848</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C27">
-        <v>0.003969909157603979</v>
+        <v>1.185730695851817E-07</v>
       </c>
       <c r="D27">
-        <v>0.9997943639755249</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0003738219093065709</v>
+        <v>0.0003602619399316609</v>
       </c>
       <c r="B28">
-        <v>0.9998645186424255</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C28">
-        <v>0.004174177069216967</v>
+        <v>3.858376294374466E-05</v>
       </c>
       <c r="D28">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0005741852801293135</v>
+        <v>0.0007607684237882495</v>
       </c>
       <c r="B29">
-        <v>0.9998451471328735</v>
+        <v>0.9997381567955017</v>
       </c>
       <c r="C29">
-        <v>0.003541883081197739</v>
+        <v>1.602393240318634E-06</v>
       </c>
       <c r="D29">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0004834337451029569</v>
+        <v>0.0007169448072090745</v>
       </c>
       <c r="B30">
-        <v>0.9999032020568848</v>
+        <v>0.9998167157173157</v>
       </c>
       <c r="C30">
-        <v>0.003674410283565521</v>
+        <v>4.956886641593883E-06</v>
       </c>
       <c r="D30">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0003383196890354156</v>
+        <v>0.0002058119425782934</v>
       </c>
       <c r="B31">
-        <v>0.9999032020568848</v>
+        <v>0.999921441078186</v>
       </c>
       <c r="C31">
-        <v>0.003607323160395026</v>
+        <v>4.32564556831494E-05</v>
       </c>
       <c r="D31">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0003489677328616381</v>
+        <v>0.0002373325551161543</v>
       </c>
       <c r="B32">
-        <v>0.9999225735664368</v>
+        <v>0.9999738335609436</v>
       </c>
       <c r="C32">
-        <v>0.003572541056200862</v>
+        <v>4.065311713929987E-06</v>
       </c>
       <c r="D32">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0005261022015474737</v>
+        <v>7.145714334910735E-05</v>
       </c>
       <c r="B33">
-        <v>0.9999032020568848</v>
+        <v>0.9999738335609436</v>
       </c>
       <c r="C33">
-        <v>0.003298641415312886</v>
+        <v>0.000103184866020456</v>
       </c>
       <c r="D33">
-        <v>0.9998971819877625</v>
+        <v>0.99991774559021</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001544979750178754</v>
+        <v>0.0005832509486936033</v>
       </c>
       <c r="B34">
-        <v>0.9999225735664368</v>
+        <v>0.999921441078186</v>
       </c>
       <c r="C34">
-        <v>0.003825076157227159</v>
+        <v>8.074614470388042E-07</v>
       </c>
       <c r="D34">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1.15028788059135E-05</v>
+        <v>0.0005189369549043477</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.9998952746391296</v>
       </c>
       <c r="C35">
-        <v>0.003960392437875271</v>
+        <v>4.281098154024221E-05</v>
       </c>
       <c r="D35">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0003065828641410917</v>
+        <v>0.0003146185190416873</v>
       </c>
       <c r="B36">
-        <v>0.9999225735664368</v>
+        <v>0.9998952746391296</v>
       </c>
       <c r="C36">
-        <v>0.004265422467142344</v>
+        <v>0.006118983961641788</v>
       </c>
       <c r="D36">
-        <v>0.9998971819877625</v>
+        <v>0.9978620409965515</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0004491801664698869</v>
+        <v>0.0003891826490871608</v>
       </c>
       <c r="B37">
-        <v>0.9998645186424255</v>
+        <v>0.999921441078186</v>
       </c>
       <c r="C37">
-        <v>0.003699644468724728</v>
+        <v>5.103469646883241E-08</v>
       </c>
       <c r="D37">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0002785635297186673</v>
+        <v>1.863564102677628E-05</v>
       </c>
       <c r="B38">
-        <v>0.9999032020568848</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.003723705653101206</v>
+        <v>1.679110361862968E-08</v>
       </c>
       <c r="D38">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0004806426004506648</v>
+        <v>0.0003183637745678425</v>
       </c>
       <c r="B39">
-        <v>0.9999419450759888</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C39">
-        <v>0.00336453365162015</v>
+        <v>6.266787977438071E-08</v>
       </c>
       <c r="D39">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>2.330929419258609E-05</v>
+        <v>8.432302274741232E-05</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C40">
-        <v>0.004090424627065659</v>
+        <v>2.548657951351174E-09</v>
       </c>
       <c r="D40">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0005164096364751458</v>
+        <v>0.0004737147246487439</v>
       </c>
       <c r="B41">
-        <v>0.9999225735664368</v>
+        <v>0.999921441078186</v>
       </c>
       <c r="C41">
-        <v>0.00367808504961431</v>
+        <v>1.019467399387963E-09</v>
       </c>
       <c r="D41">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.000139405092340894</v>
+        <v>0.000375552917830646</v>
       </c>
       <c r="B42">
-        <v>0.9999419450759888</v>
+        <v>0.9998952746391296</v>
       </c>
       <c r="C42">
-        <v>0.003960953559726477</v>
+        <v>1.911499625251167E-09</v>
       </c>
       <c r="D42">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0002511959464754909</v>
+        <v>0.0009642954682931304</v>
       </c>
       <c r="B43">
-        <v>0.999980628490448</v>
+        <v>0.9997381567955017</v>
       </c>
       <c r="C43">
-        <v>0.003251246176660061</v>
+        <v>2.90155899307365E-09</v>
       </c>
       <c r="D43">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>5.777502155979164E-05</v>
+        <v>0.0001914624590426683</v>
       </c>
       <c r="B44">
-        <v>0.999980628490448</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C44">
-        <v>0.003847262356430292</v>
+        <v>1.509595892734694E-09</v>
       </c>
       <c r="D44">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0003823455772362649</v>
+        <v>0.0003856393159367144</v>
       </c>
       <c r="B45">
-        <v>0.9999419450759888</v>
+        <v>0.999921441078186</v>
       </c>
       <c r="C45">
-        <v>0.004236360546201468</v>
+        <v>1.704424448689679E-06</v>
       </c>
       <c r="D45">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.000301788590149954</v>
+        <v>0.0005355846369639039</v>
       </c>
       <c r="B46">
-        <v>0.9999032020568848</v>
+        <v>0.9998952746391296</v>
       </c>
       <c r="C46">
-        <v>0.004116904456168413</v>
+        <v>2.116303399191111E-08</v>
       </c>
       <c r="D46">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>8.739442273508757E-05</v>
+        <v>0.0002260941255372018</v>
       </c>
       <c r="B47">
-        <v>0.999961256980896</v>
+        <v>0.9999738335609436</v>
       </c>
       <c r="C47">
-        <v>0.004202902317047119</v>
+        <v>9.343176543552545E-08</v>
       </c>
       <c r="D47">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>6.159298663988011E-06</v>
+        <v>0.000163688775501214</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.9999738335609436</v>
       </c>
       <c r="C48">
-        <v>0.004412871785461903</v>
+        <v>1.197692398591244E-07</v>
       </c>
       <c r="D48">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0002314865414518863</v>
+        <v>0.0002383910905336961</v>
       </c>
       <c r="B49">
-        <v>0.999961256980896</v>
+        <v>0.9999476075172424</v>
       </c>
       <c r="C49">
-        <v>0.004467417486011982</v>
+        <v>1.411557892794235E-08</v>
       </c>
       <c r="D49">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0009304629638791084</v>
+        <v>0.0001218413381138816</v>
       </c>
       <c r="B50">
-        <v>0.9998645186424255</v>
+        <v>0.9999738335609436</v>
       </c>
       <c r="C50">
-        <v>0.004273765720427036</v>
+        <v>6.244146533163075E-09</v>
       </c>
       <c r="D50">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1.377763601340121E-05</v>
+        <v>5.417723514256068E-05</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9999738335609436</v>
       </c>
       <c r="C51">
-        <v>0.004614434670656919</v>
+        <v>1.529199211702803E-09</v>
       </c>
       <c r="D51">
-        <v>0.9998971819877625</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
